--- a/docs/TableDesign.xlsx
+++ b/docs/TableDesign.xlsx
@@ -5,7 +5,9 @@
   <sheets>
     <sheet state="visible" name="user_table" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="management" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ER図" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="password_reset_token" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="password_reset_token_seq" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ER図" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -27,9 +29,6 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>西野樹</t>
-  </si>
-  <si>
     <t>サブシステム名</t>
   </si>
   <si>
@@ -247,6 +246,51 @@
   </si>
   <si>
     <t>YYYYMMDD</t>
+  </si>
+  <si>
+    <t>2024/11/30</t>
+  </si>
+  <si>
+    <t>パスワードリセットトークンテーブル</t>
+  </si>
+  <si>
+    <t>password_reset_token</t>
+  </si>
+  <si>
+    <t>このテーブルは、パスワードリセットのためのトークンを管理するためのテーブル。</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>トークン</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>有効期限</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>パスワードリセットトークンシーケンステーブル</t>
+  </si>
+  <si>
+    <t>password_reset_token_seq</t>
+  </si>
+  <si>
+    <t>password_reset_tokenテーブルのIDを生成するためのシーケンスを管理するためのテーブル。</t>
+  </si>
+  <si>
+    <t>next_val</t>
+  </si>
+  <si>
+    <t>bigint</t>
   </si>
 </sst>
 </file>
@@ -590,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -679,6 +723,9 @@
     <xf quotePrefix="1" borderId="23" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -696,6 +743,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -955,86 +1010,84 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="19"/>
     </row>
@@ -1063,7 +1116,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1074,25 +1127,25 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1101,19 +1154,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="G14" s="34"/>
     </row>
@@ -1123,16 +1176,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
@@ -1143,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -1163,19 +1216,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="G17" s="38"/>
     </row>
@@ -1185,20 +1238,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1207,19 +1260,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -1229,19 +1282,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -1251,29 +1304,26 @@
         <v>8</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="44" t="s">
         <v>53</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>54</v>
       </c>
       <c r="G21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -1281,6 +1331,9 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1319,86 +1372,84 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="19"/>
     </row>
@@ -1427,7 +1478,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1438,25 +1489,25 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1465,22 +1516,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -1489,16 +1540,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
@@ -1509,16 +1560,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>67</v>
-      </c>
       <c r="D16" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
@@ -1529,22 +1580,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -1553,20 +1604,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1575,19 +1626,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="D19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="G19" s="37"/>
     </row>
@@ -1597,19 +1648,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -1619,38 +1670,38 @@
         <v>8</v>
       </c>
       <c r="B21" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="49" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1665,6 +1716,514 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="21"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="28">
+        <f t="shared" ref="A14:A17" si="1">ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="41">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="21"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="28">
+        <f t="shared" ref="A14:A15" si="1">ROW()-13</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/docs/TableDesign.xlsx
+++ b/docs/TableDesign.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="93">
   <si>
     <t>テーブル情報</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>password_reset_tokenテーブルのIDを生成するためのシーケンスを管理するためのテーブル。</t>
+  </si>
+  <si>
+    <t>ネクストID</t>
   </si>
   <si>
     <t>next_val</t>
@@ -1954,7 +1957,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>30</v>
@@ -1964,18 +1967,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2182,13 +2185,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>30</v>
@@ -2198,18 +2201,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
